--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Notch3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H2">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I2">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J2">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.70468916187764</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N2">
-        <v>6.70468916187764</v>
+        <v>26.459605</v>
       </c>
       <c r="O2">
-        <v>0.0466399255592423</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P2">
-        <v>0.0466399255592423</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q2">
-        <v>79.54504233215927</v>
+        <v>109.7389068119089</v>
       </c>
       <c r="R2">
-        <v>79.54504233215927</v>
+        <v>987.6501613071799</v>
       </c>
       <c r="S2">
-        <v>0.03608473098723619</v>
+        <v>0.04528916543929485</v>
       </c>
       <c r="T2">
-        <v>0.03608473098723619</v>
+        <v>0.06886798601408563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H3">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I3">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J3">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.10002533935425</v>
+        <v>5.485874</v>
       </c>
       <c r="N3">
-        <v>5.10002533935425</v>
+        <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.0354773795525396</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P3">
-        <v>0.0354773795525396</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q3">
-        <v>60.50716471998354</v>
+        <v>68.25655360326134</v>
       </c>
       <c r="R3">
-        <v>60.50716471998354</v>
+        <v>614.308982429352</v>
       </c>
       <c r="S3">
-        <v>0.02744840781658964</v>
+        <v>0.02816942904081065</v>
       </c>
       <c r="T3">
-        <v>0.02744840781658964</v>
+        <v>0.04283523059853343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H4">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I4">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J4">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>131.949570727232</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N4">
-        <v>131.949570727232</v>
+        <v>0.207487</v>
       </c>
       <c r="O4">
-        <v>0.9178826948882181</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P4">
-        <v>0.9178826948882181</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q4">
-        <v>1565.461714300941</v>
+        <v>0.860534258076889</v>
       </c>
       <c r="R4">
-        <v>1565.461714300941</v>
+        <v>7.744808322691999</v>
       </c>
       <c r="S4">
-        <v>0.7101544379784561</v>
+        <v>0.0003551418499823777</v>
       </c>
       <c r="T4">
-        <v>0.7101544379784561</v>
+        <v>0.0005400387426080089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.69112362355757</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H5">
-        <v>0.69112362355757</v>
+        <v>37.326716</v>
       </c>
       <c r="I5">
-        <v>0.04506993090677287</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J5">
-        <v>0.04506993090677287</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.70468916187764</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N5">
-        <v>6.70468916187764</v>
+        <v>0.10241</v>
       </c>
       <c r="O5">
-        <v>0.0466399255592423</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P5">
-        <v>0.0466399255592423</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q5">
-        <v>4.633769068384042</v>
+        <v>0.4247365539511112</v>
       </c>
       <c r="R5">
-        <v>4.633769068384042</v>
+        <v>3.82262898556</v>
       </c>
       <c r="S5">
-        <v>0.00210205822245208</v>
+        <v>0.000175288460755109</v>
       </c>
       <c r="T5">
-        <v>0.00210205822245208</v>
+        <v>0.0002665485916249509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.69112362355757</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H6">
-        <v>0.69112362355757</v>
+        <v>37.326716</v>
       </c>
       <c r="I6">
-        <v>0.04506993090677287</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J6">
-        <v>0.04506993090677287</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.10002533935425</v>
+        <v>132.35754</v>
       </c>
       <c r="N6">
-        <v>5.10002533935425</v>
+        <v>264.71508</v>
       </c>
       <c r="O6">
-        <v>0.0354773795525396</v>
+        <v>0.9018234178214739</v>
       </c>
       <c r="P6">
-        <v>0.0354773795525396</v>
+        <v>0.8596258536877913</v>
       </c>
       <c r="Q6">
-        <v>3.524747992769935</v>
+        <v>1646.82410201288</v>
       </c>
       <c r="R6">
-        <v>3.524747992769935</v>
+        <v>9880.944612077279</v>
       </c>
       <c r="S6">
-        <v>0.001598963045186316</v>
+        <v>0.6796430853217293</v>
       </c>
       <c r="T6">
-        <v>0.001598963045186316</v>
+        <v>0.6889896665939479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H7">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J7">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>131.949570727232</v>
+        <v>8.819868333333334</v>
       </c>
       <c r="N7">
-        <v>131.949570727232</v>
+        <v>26.459605</v>
       </c>
       <c r="O7">
-        <v>0.9178826948882181</v>
+        <v>0.06009452733181694</v>
       </c>
       <c r="P7">
-        <v>0.9178826948882181</v>
+        <v>0.08592393201160566</v>
       </c>
       <c r="Q7">
-        <v>91.19346544787044</v>
+        <v>6.303380560510556</v>
       </c>
       <c r="R7">
-        <v>91.19346544787044</v>
+        <v>56.73042504459501</v>
       </c>
       <c r="S7">
-        <v>0.04136890963913447</v>
+        <v>0.00260140048160948</v>
       </c>
       <c r="T7">
-        <v>0.04136890963913447</v>
+        <v>0.003955763155420749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.77925804429671</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H8">
-        <v>2.77925804429671</v>
+        <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.1812424923109451</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J8">
-        <v>0.1812424923109451</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.70468916187764</v>
+        <v>5.485874</v>
       </c>
       <c r="N8">
-        <v>6.70468916187764</v>
+        <v>16.457622</v>
       </c>
       <c r="O8">
-        <v>0.0466399255592423</v>
+        <v>0.03737822295894862</v>
       </c>
       <c r="P8">
-        <v>0.0466399255592423</v>
+        <v>0.05344386636915803</v>
       </c>
       <c r="Q8">
-        <v>18.6340612876574</v>
+        <v>3.920642601695334</v>
       </c>
       <c r="R8">
-        <v>18.6340612876574</v>
+        <v>35.285783415258</v>
       </c>
       <c r="S8">
-        <v>0.008453136349554025</v>
+        <v>0.001618046293470623</v>
       </c>
       <c r="T8">
-        <v>0.008453136349554025</v>
+        <v>0.002460446961828869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.77925804429671</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H9">
-        <v>2.77925804429671</v>
+        <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.1812424923109451</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J9">
-        <v>0.1812424923109451</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.10002533935425</v>
+        <v>0.06916233333333334</v>
       </c>
       <c r="N9">
-        <v>5.10002533935425</v>
+        <v>0.207487</v>
       </c>
       <c r="O9">
-        <v>0.0354773795525396</v>
+        <v>0.0004712403375823903</v>
       </c>
       <c r="P9">
-        <v>0.0354773795525396</v>
+        <v>0.0006737855263255828</v>
       </c>
       <c r="Q9">
-        <v>14.17428645051736</v>
+        <v>0.04942891333255556</v>
       </c>
       <c r="R9">
-        <v>14.17428645051736</v>
+        <v>0.4448602199930001</v>
       </c>
       <c r="S9">
-        <v>0.00643000869076364</v>
+        <v>2.039927586703226E-05</v>
       </c>
       <c r="T9">
-        <v>0.00643000869076364</v>
+        <v>3.101971589631761E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.77925804429671</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H10">
-        <v>2.77925804429671</v>
+        <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.1812424923109451</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J10">
-        <v>0.1812424923109451</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>131.949570727232</v>
+        <v>0.03413666666666667</v>
       </c>
       <c r="N10">
-        <v>131.949570727232</v>
+        <v>0.10241</v>
       </c>
       <c r="O10">
-        <v>0.9178826948882181</v>
+        <v>0.0002325915501781441</v>
       </c>
       <c r="P10">
-        <v>0.9178826948882181</v>
+        <v>0.0003325624051193711</v>
       </c>
       <c r="Q10">
-        <v>366.7219058851572</v>
+        <v>0.02439678155444445</v>
       </c>
       <c r="R10">
-        <v>366.7219058851572</v>
+        <v>0.21957103399</v>
       </c>
       <c r="S10">
-        <v>0.1663593472706274</v>
+        <v>1.006853365050714E-05</v>
       </c>
       <c r="T10">
-        <v>0.1663593472706274</v>
+        <v>1.531049706700606E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7146796666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.144039</v>
+      </c>
+      <c r="I11">
+        <v>0.04328847562517017</v>
+      </c>
+      <c r="J11">
+        <v>0.04603796710428066</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>132.35754</v>
+      </c>
+      <c r="N11">
+        <v>264.71508</v>
+      </c>
+      <c r="O11">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P11">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q11">
+        <v>94.59324256802</v>
+      </c>
+      <c r="R11">
+        <v>567.55945540812</v>
+      </c>
+      <c r="S11">
+        <v>0.03903856104057253</v>
+      </c>
+      <c r="T11">
+        <v>0.03957542677406772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.184371</v>
+      </c>
+      <c r="I12">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J12">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N12">
+        <v>26.459605</v>
+      </c>
+      <c r="O12">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P12">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q12">
+        <v>3.481998759272777</v>
+      </c>
+      <c r="R12">
+        <v>31.337988833455</v>
+      </c>
+      <c r="S12">
+        <v>0.001437018305079479</v>
+      </c>
+      <c r="T12">
+        <v>0.002185170682132567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.184371</v>
+      </c>
+      <c r="I13">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J13">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.485874</v>
+      </c>
+      <c r="N13">
+        <v>16.457622</v>
+      </c>
+      <c r="O13">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P13">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q13">
+        <v>2.165770025084667</v>
+      </c>
+      <c r="R13">
+        <v>19.491930225762</v>
+      </c>
+      <c r="S13">
+        <v>0.0008938116828304408</v>
+      </c>
+      <c r="T13">
+        <v>0.001359155327225027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.184371</v>
+      </c>
+      <c r="I14">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J14">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.207487</v>
+      </c>
+      <c r="O14">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P14">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q14">
+        <v>0.02730462063077778</v>
+      </c>
+      <c r="R14">
+        <v>0.245741585677</v>
+      </c>
+      <c r="S14">
+        <v>1.126859668033691E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.713534685508873E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.184371</v>
+      </c>
+      <c r="I15">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J15">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.10241</v>
+      </c>
+      <c r="O15">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P15">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q15">
+        <v>0.01347682601222222</v>
+      </c>
+      <c r="R15">
+        <v>0.12129143411</v>
+      </c>
+      <c r="S15">
+        <v>5.561876098422084E-06</v>
+      </c>
+      <c r="T15">
+        <v>8.457546118212883E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.184371</v>
+      </c>
+      <c r="I16">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J16">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>132.35754</v>
+      </c>
+      <c r="N16">
+        <v>264.71508</v>
+      </c>
+      <c r="O16">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P16">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q16">
+        <v>52.25347733578</v>
+      </c>
+      <c r="R16">
+        <v>313.5208640146799</v>
+      </c>
+      <c r="S16">
+        <v>0.02156497133596167</v>
+      </c>
+      <c r="T16">
+        <v>0.02186153693278403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.9579895</v>
+      </c>
+      <c r="H17">
+        <v>5.915979</v>
+      </c>
+      <c r="I17">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J17">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.819868333333334</v>
+      </c>
+      <c r="N17">
+        <v>26.459605</v>
+      </c>
+      <c r="O17">
+        <v>0.06009452733181694</v>
+      </c>
+      <c r="P17">
+        <v>0.08592393201160566</v>
+      </c>
+      <c r="Q17">
+        <v>26.0890779213825</v>
+      </c>
+      <c r="R17">
+        <v>156.534467528295</v>
+      </c>
+      <c r="S17">
+        <v>0.01076694310583313</v>
+      </c>
+      <c r="T17">
+        <v>0.01091501215996672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.9579895</v>
+      </c>
+      <c r="H18">
+        <v>5.915979</v>
+      </c>
+      <c r="I18">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J18">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.485874</v>
+      </c>
+      <c r="N18">
+        <v>16.457622</v>
+      </c>
+      <c r="O18">
+        <v>0.03737822295894862</v>
+      </c>
+      <c r="P18">
+        <v>0.05344386636915803</v>
+      </c>
+      <c r="Q18">
+        <v>16.227157690323</v>
+      </c>
+      <c r="R18">
+        <v>97.36294614193801</v>
+      </c>
+      <c r="S18">
+        <v>0.00669693594183691</v>
+      </c>
+      <c r="T18">
+        <v>0.006789033481570712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.9579895</v>
+      </c>
+      <c r="H19">
+        <v>5.915979</v>
+      </c>
+      <c r="I19">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J19">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06916233333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.207487</v>
+      </c>
+      <c r="O19">
+        <v>0.0004712403375823903</v>
+      </c>
+      <c r="P19">
+        <v>0.0006737855263255828</v>
+      </c>
+      <c r="Q19">
+        <v>0.2045814557955</v>
+      </c>
+      <c r="R19">
+        <v>1.227488734773</v>
+      </c>
+      <c r="S19">
+        <v>8.443061505264339E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.559172096616765E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.9579895</v>
+      </c>
+      <c r="H20">
+        <v>5.915979</v>
+      </c>
+      <c r="I20">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J20">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03413666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.10241</v>
+      </c>
+      <c r="O20">
+        <v>0.0002325915501781441</v>
+      </c>
+      <c r="P20">
+        <v>0.0003325624051193711</v>
+      </c>
+      <c r="Q20">
+        <v>0.100975901565</v>
+      </c>
+      <c r="R20">
+        <v>0.60585540939</v>
+      </c>
+      <c r="S20">
+        <v>4.167267967410589E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.22457703092012E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.9579895</v>
+      </c>
+      <c r="H21">
+        <v>5.915979</v>
+      </c>
+      <c r="I21">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J21">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>132.35754</v>
+      </c>
+      <c r="N21">
+        <v>264.71508</v>
+      </c>
+      <c r="O21">
+        <v>0.9018234178214739</v>
+      </c>
+      <c r="P21">
+        <v>0.8596258536877913</v>
+      </c>
+      <c r="Q21">
+        <v>391.51221356583</v>
+      </c>
+      <c r="R21">
+        <v>1566.04885426332</v>
+      </c>
+      <c r="S21">
+        <v>0.1615768001232104</v>
+      </c>
+      <c r="T21">
+        <v>0.1091992233869917</v>
       </c>
     </row>
   </sheetData>
